--- a/47 sila med ploščama kondenzatorja/vaja47(k-premice).xlsx
+++ b/47 sila med ploščama kondenzatorja/vaja47(k-premice).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jure\Desktop\47 sila med ploščama kondenzatorja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\archW\Desktop\faks\fizikalni-praktikum\47 sila med ploščama kondenzatorja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88AD5C21-562F-4575-B9F1-A302AD407DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A2A6B3-667C-4250-BB48-CB928ECD0396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2C057F89-E519-4C7A-AF15-235D6AAF15E6}"/>
+    <workbookView xWindow="1073" yWindow="1073" windowWidth="15000" windowHeight="9720" xr2:uid="{2C057F89-E519-4C7A-AF15-235D6AAF15E6}"/>
   </bookViews>
   <sheets>
     <sheet name="vaja47" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -542,7 +542,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="sl-SI"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -579,7 +579,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sl-SI"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -701,7 +701,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="sl-SI"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -868,7 +868,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="sl-SI"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -906,7 +906,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sl-SI"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="150448207"/>
@@ -985,7 +985,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="sl-SI"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1023,7 +1023,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sl-SI"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="150450703"/>
@@ -1071,7 +1071,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="sl-SI"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1680,9 +1680,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pisarna">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1720,7 +1720,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pisarna">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1826,7 +1826,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pisarna">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1978,30 +1978,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0500BB5F-DEBF-4D49-96A8-4221053D4E5C}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.41015625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5859375" customWidth="1"/>
+    <col min="4" max="4" width="16.703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.41015625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5859375" customWidth="1"/>
+    <col min="8" max="8" width="20.703125" customWidth="1"/>
+    <col min="9" max="9" width="9.5859375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.1171875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1171875" customWidth="1"/>
+    <col min="13" max="13" width="10.29296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
       <c r="D3" s="19" t="s">
         <v>5</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" ht="16.7" thickBot="1" x14ac:dyDescent="0.7">
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B8">
         <f>C8/10000000</f>
         <v>2.0000000000000002E-5</v>
@@ -2086,7 +2086,7 @@
         <v>9.7785871360623954E-12</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B9">
         <f t="shared" ref="B9:B16" si="0">C9/10000000</f>
         <v>4.0000000000000003E-5</v>
@@ -2136,7 +2136,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>6.0000000000000002E-5</v>
@@ -2178,7 +2178,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B11">
         <f t="shared" si="0"/>
         <v>8.0000000000000007E-5</v>
@@ -2225,7 +2225,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B12">
         <f t="shared" si="0"/>
         <v>1E-4</v>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B13">
         <f t="shared" si="0"/>
         <v>1.2E-4</v>
@@ -2309,7 +2309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>1.3999999999999999E-4</v>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="L14" s="14"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>1.6000000000000001E-4</v>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="L15" s="14"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B16">
         <f t="shared" si="0"/>
         <v>1.8000000000000001E-4</v>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="L16" s="14"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -2441,7 +2441,7 @@
       <c r="J17" s="16"/>
       <c r="L17" s="14"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B18">
         <f>C18/10000000</f>
         <v>2.0000000000000001E-4</v>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="L18" s="14"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.5">
       <c r="C22" s="3" t="s">
         <v>6</v>
       </c>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B23" t="s">
         <v>17</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B24" t="s">
         <v>18</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.5">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -2534,7 +2534,7 @@
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.5">
       <c r="C26" t="s">
         <v>32</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>8.6946570000000003E-5</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:16" ht="17.350000000000001" x14ac:dyDescent="0.65">
       <c r="C28" t="s">
         <v>23</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:16" ht="16.350000000000001" x14ac:dyDescent="0.65">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:16" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.5">
       <c r="C30" t="s">
         <v>27</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:16" ht="16.350000000000001" x14ac:dyDescent="0.65">
       <c r="B31" t="s">
         <v>25</v>
       </c>
